--- a/usage/output/NoMARS_BySite_kHS23-Hrs_2022-12_2023-11.xlsx
+++ b/usage/output/NoMARS_BySite_kHS23-Hrs_2022-12_2023-11.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schellma/Dropbox/DUNE-computing/CCB-data/usage/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0FCAC1-CA15-0748-8523-685F24CE0955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CFBEBCC7-5DAB-F145-9208-29A534409486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="NoMARS_BySite_kHS23-Hrs_2022-12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1057,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
